--- a/数据整理/stocks/港股/09988-阿里巴巴集团控股有限公司.xlsx
+++ b/数据整理/stocks/港股/09988-阿里巴巴集团控股有限公司.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,175 +22,259 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>159920</t>
+  </si>
+  <si>
+    <t>510900</t>
+  </si>
+  <si>
+    <t>270023</t>
+  </si>
+  <si>
+    <t>000906</t>
+  </si>
+  <si>
     <t>118001</t>
   </si>
   <si>
+    <t>000041</t>
+  </si>
+  <si>
     <t>161831</t>
   </si>
   <si>
-    <t>000041</t>
+    <t>470888</t>
+  </si>
+  <si>
+    <t>160717</t>
   </si>
   <si>
     <t>164705</t>
   </si>
   <si>
+    <t>006792</t>
+  </si>
+  <si>
+    <t>160644</t>
+  </si>
+  <si>
+    <t>100055</t>
+  </si>
+  <si>
+    <t>160924</t>
+  </si>
+  <si>
     <t>010789</t>
   </si>
   <si>
-    <t>270023</t>
-  </si>
-  <si>
-    <t>000906</t>
-  </si>
-  <si>
-    <t>470888</t>
-  </si>
-  <si>
-    <t>006792</t>
-  </si>
-  <si>
-    <t>510900</t>
-  </si>
-  <si>
-    <t>100055</t>
-  </si>
-  <si>
-    <t>159920</t>
-  </si>
-  <si>
-    <t>160644</t>
-  </si>
-  <si>
-    <t>160717</t>
-  </si>
-  <si>
-    <t>160924</t>
+    <t>华夏恒生ETF(QDII)</t>
+  </si>
+  <si>
+    <t>易方达恒生国企(QDII-ETF)</t>
+  </si>
+  <si>
+    <t>广发全球精选股票(QDII)</t>
+  </si>
+  <si>
+    <t>广发全球精选股票(QDII)美元现汇</t>
   </si>
   <si>
     <t>易方达亚洲精选股票(QDII)</t>
   </si>
   <si>
+    <t>华夏全球精选股票(QDII)</t>
+  </si>
+  <si>
     <t>银华恒生国企指数（QDII-LOF）</t>
   </si>
   <si>
-    <t>华夏全球精选股票(QDII)</t>
+    <t>汇添富香港优势精选混合 (QDII)</t>
+  </si>
+  <si>
+    <t>嘉实恒生中国企业指数(QDII-LOF)</t>
   </si>
   <si>
     <t>汇添富恒生指数（QDII-LOF）A</t>
   </si>
   <si>
+    <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+  </si>
+  <si>
+    <t>鹏华香港美国互联网股票（LOF）人民币</t>
+  </si>
+  <si>
+    <t>富国全球科技互联网股票(QDII)</t>
+  </si>
+  <si>
+    <t>大成恒生指数（QDII-LOF）</t>
+  </si>
+  <si>
     <t>汇添富恒生指数（QDII-LOF）C</t>
   </si>
   <si>
-    <t>广发全球精选股票(QDII)</t>
-  </si>
-  <si>
-    <t>广发全球精选股票(QDII)美元现汇</t>
-  </si>
-  <si>
-    <t>汇添富香港优势精选混合 (QDII)</t>
-  </si>
-  <si>
-    <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
-  </si>
-  <si>
-    <t>易方达恒生国企(QDII-ETF)</t>
-  </si>
-  <si>
-    <t>富国全球科技互联网股票(QDII)</t>
-  </si>
-  <si>
-    <t>华夏恒生ETF(QDII)</t>
-  </si>
-  <si>
-    <t>鹏华香港美国互联网股票（LOF）人民币</t>
-  </si>
-  <si>
-    <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-  </si>
-  <si>
-    <t>大成恒生指数（QDII-LOF）</t>
+    <t>126.61</t>
+  </si>
+  <si>
+    <t>102.81</t>
+  </si>
+  <si>
+    <t>50.63</t>
+  </si>
+  <si>
+    <t>30.54</t>
+  </si>
+  <si>
+    <t>30.43</t>
+  </si>
+  <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>93.01</t>
+  </si>
+  <si>
+    <t>97.45</t>
+  </si>
+  <si>
+    <t>89.90</t>
   </si>
   <si>
     <t>94.75</t>
   </si>
   <si>
+    <t>83.78</t>
+  </si>
+  <si>
     <t>86.76</t>
   </si>
   <si>
-    <t>83.78</t>
+    <t>79.75</t>
+  </si>
+  <si>
+    <t>94.93</t>
   </si>
   <si>
     <t>93.05</t>
   </si>
   <si>
-    <t>89.90</t>
-  </si>
-  <si>
-    <t>79.75</t>
-  </si>
-  <si>
     <t>81.10</t>
   </si>
   <si>
-    <t>97.45</t>
-  </si>
-  <si>
     <t>82.20</t>
   </si>
   <si>
-    <t>93.01</t>
-  </si>
-  <si>
-    <t>94.93</t>
-  </si>
-  <si>
     <t>93.91</t>
   </si>
   <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>4.77</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
     <t>5.66</t>
   </si>
   <si>
+    <t>2.04</t>
+  </si>
+  <si>
     <t>4.79</t>
   </si>
   <si>
-    <t>2.04</t>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>4.64</t>
   </si>
   <si>
     <t>4.65</t>
   </si>
   <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>7.11</t>
-  </si>
-  <si>
     <t>3.30</t>
   </si>
   <si>
-    <t>4.77</t>
-  </si>
-  <si>
     <t>2.88</t>
   </si>
   <si>
-    <t>4.63</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
     <t>4.67</t>
+  </si>
+  <si>
+    <t>5.8620</t>
+  </si>
+  <si>
+    <t>4.9040</t>
+  </si>
+  <si>
+    <t>1.8581</t>
+  </si>
+  <si>
+    <t>1.7286</t>
+  </si>
+  <si>
+    <t>0.6208</t>
+  </si>
+  <si>
+    <t>0.1906</t>
+  </si>
+  <si>
+    <t>0.1486</t>
+  </si>
+  <si>
+    <t>0.1137</t>
+  </si>
+  <si>
+    <t>0.1111</t>
+  </si>
+  <si>
+    <t>0.0927</t>
+  </si>
+  <si>
+    <t>0.0780</t>
+  </si>
+  <si>
+    <t>0.0332</t>
+  </si>
+  <si>
+    <t>0.0042</t>
   </si>
 </sst>
 </file>
@@ -548,13 +632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,305 +654,401 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="F16">
-        <v>6</v>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/09988-阿里巴巴集团控股有限公司.xlsx
+++ b/数据整理/stocks/港股/09988-阿里巴巴集团控股有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09988-阿里巴巴集团控股有限公司.xlsx
+++ b/数据整理/stocks/港股/09988-阿里巴巴集团控股有限公司.xlsx
@@ -2176,12 +2176,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/09988-阿里巴巴集团控股有限公司.xlsx
+++ b/数据整理/stocks/港股/09988-阿里巴巴集团控股有限公司.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.41</v>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>397.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>107.7776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2207,13 +2250,2209 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>277.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>34.9574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.9366</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>149.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.7778</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.6266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>123.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9.9947</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达恒生国企(QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>104.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8.9473</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.8337</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>52.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.4478</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4900</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1184</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1184</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2322</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8214</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7587</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 人民币QDII</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6797</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现汇QDII</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6797</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票 - 美元现钞QDII</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6797</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6031</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5600</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4773</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4760</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4611</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4354</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011422</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011423</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3603</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>224.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>15</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>17.7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09988-阿里巴巴集团控股有限公司.xlsx
+++ b/数据整理/stocks/港股/09988-阿里巴巴集团控股有限公司.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5</v>
+        <v>162.25</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>28.41</v>
+        <v>224.5</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>17.7</v>
       </c>
     </row>
@@ -532,6 +549,1810 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50（QDII）ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>317.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>79.8845</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生互联网科技业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>204.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>23.1800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>147.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.3214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达优质精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>173.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.3255</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.0586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>103.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.8460</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达恒生国企（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.9111</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.8756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9347</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9609</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7423</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7124</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-人民币（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5002</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4689</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159850</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏恒生中国企业ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513220</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证全球中国互联网ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014127</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2753,7 +4574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3835,7 +5656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
